--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -546,7 +546,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H2">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I2">
         <v>0.9943843705197677</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N2">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O2">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P2">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q2">
-        <v>2.573850148822333</v>
+        <v>2.501934138168667</v>
       </c>
       <c r="R2">
-        <v>23.164651339401</v>
+        <v>22.517407243518</v>
       </c>
       <c r="S2">
-        <v>0.1755985104400599</v>
+        <v>0.3205636554758203</v>
       </c>
       <c r="T2">
-        <v>0.1755985104400599</v>
+        <v>0.3205636554758204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,7 +608,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H3">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I3">
         <v>0.9943843705197677</v>
@@ -629,10 +629,10 @@
         <v>3.403445</v>
       </c>
       <c r="O3">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P3">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q3">
         <v>1.702255328222778</v>
@@ -641,10 +641,10 @@
         <v>15.320297954005</v>
       </c>
       <c r="S3">
-        <v>0.1161347719335343</v>
+        <v>0.2181037391206894</v>
       </c>
       <c r="T3">
-        <v>0.1161347719335343</v>
+        <v>0.2181037391206896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,7 +670,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H4">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I4">
         <v>0.9943843705197677</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N4">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O4">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P4">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q4">
-        <v>1.276240479993111</v>
+        <v>0.3083650222925556</v>
       </c>
       <c r="R4">
-        <v>11.486164319938</v>
+        <v>2.775285200633</v>
       </c>
       <c r="S4">
-        <v>0.08707030879503112</v>
+        <v>0.03950968063425515</v>
       </c>
       <c r="T4">
-        <v>0.08707030879503111</v>
+        <v>0.03950968063425516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,7 +732,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H5">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I5">
         <v>0.9943843705197677</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N5">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O5">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P5">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q5">
-        <v>5.323571847744333</v>
+        <v>2.493392464512889</v>
       </c>
       <c r="R5">
-        <v>47.912146629699</v>
+        <v>22.440532180616</v>
       </c>
       <c r="S5">
-        <v>0.3631956923025474</v>
+        <v>0.3194692421220851</v>
       </c>
       <c r="T5">
-        <v>0.3631956923025474</v>
+        <v>0.3194692421220852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,7 +794,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H6">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I6">
         <v>0.9943843705197677</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N6">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O6">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P6">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q6">
-        <v>0.2573780627061111</v>
+        <v>0.1768808660287778</v>
       </c>
       <c r="R6">
-        <v>2.316402564355</v>
+        <v>1.591927794259</v>
       </c>
       <c r="S6">
-        <v>0.01755937673831576</v>
+        <v>0.02266309737450464</v>
       </c>
       <c r="T6">
-        <v>0.01755937673831576</v>
+        <v>0.02266309737450465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,7 +856,7 @@
         <v>1.500469666666667</v>
       </c>
       <c r="H7">
-        <v>4.501409</v>
+        <v>4.501409000000001</v>
       </c>
       <c r="I7">
         <v>0.9943843705197677</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N7">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O7">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P7">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q7">
-        <v>3.441977884178777</v>
+        <v>0.5781399653846667</v>
       </c>
       <c r="R7">
-        <v>30.97780095760899</v>
+        <v>5.203259688462</v>
       </c>
       <c r="S7">
-        <v>0.2348257103102792</v>
+        <v>0.07407495579241301</v>
       </c>
       <c r="T7">
-        <v>0.2348257103102792</v>
+        <v>0.07407495579241304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,11 +921,11 @@
         <v>0.025421</v>
       </c>
       <c r="I8">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J8">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J8">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K8">
         <v>3</v>
       </c>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.715363</v>
+        <v>1.667434</v>
       </c>
       <c r="N8">
-        <v>5.146089</v>
+        <v>5.002302</v>
       </c>
       <c r="O8">
-        <v>0.1765901754351529</v>
+        <v>0.3223739883484499</v>
       </c>
       <c r="P8">
-        <v>0.1765901754351529</v>
+        <v>0.32237398834845</v>
       </c>
       <c r="Q8">
-        <v>0.01453541427433333</v>
+        <v>0.01412927990466667</v>
       </c>
       <c r="R8">
-        <v>0.130818728469</v>
+        <v>0.127163519142</v>
       </c>
       <c r="S8">
-        <v>0.0009916649950930392</v>
+        <v>0.00181033287262962</v>
       </c>
       <c r="T8">
-        <v>0.0009916649950930392</v>
+        <v>0.001810332872629621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.025421</v>
       </c>
       <c r="I9">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J9">
         <v>0.005615629480232303</v>
-      </c>
-      <c r="J9">
-        <v>0.005615629480232304</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>3.403445</v>
       </c>
       <c r="O9">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157105</v>
       </c>
       <c r="P9">
-        <v>0.1167906248092277</v>
+        <v>0.2193354457157106</v>
       </c>
       <c r="Q9">
         <v>0.009613219482777777</v>
@@ -1013,10 +1013,10 @@
         <v>0.086518975345</v>
       </c>
       <c r="S9">
-        <v>0.0006558528756934496</v>
+        <v>0.001231706595021036</v>
       </c>
       <c r="T9">
-        <v>0.0006558528756934497</v>
+        <v>0.001231706595021036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,11 +1045,11 @@
         <v>0.025421</v>
       </c>
       <c r="I10">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J10">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J10">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K10">
         <v>3</v>
       </c>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8505606666666666</v>
+        <v>0.2055123333333333</v>
       </c>
       <c r="N10">
-        <v>2.551682</v>
+        <v>0.616537</v>
       </c>
       <c r="O10">
-        <v>0.08756202468218523</v>
+        <v>0.03973280534729575</v>
       </c>
       <c r="P10">
-        <v>0.08756202468218521</v>
+        <v>0.03973280534729576</v>
       </c>
       <c r="Q10">
-        <v>0.00720736756911111</v>
+        <v>0.001741443008555555</v>
       </c>
       <c r="R10">
-        <v>0.064866308122</v>
+        <v>0.015672987077</v>
       </c>
       <c r="S10">
-        <v>0.000491715887154108</v>
+        <v>0.0002231247130406057</v>
       </c>
       <c r="T10">
-        <v>0.000491715887154108</v>
+        <v>0.0002231247130406058</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,11 +1107,11 @@
         <v>0.025421</v>
       </c>
       <c r="I11">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J11">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J11">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K11">
         <v>3</v>
       </c>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.547937</v>
+        <v>1.661741333333333</v>
       </c>
       <c r="N11">
-        <v>10.643811</v>
+        <v>4.985224</v>
       </c>
       <c r="O11">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672698</v>
       </c>
       <c r="P11">
-        <v>0.3652467829041842</v>
+        <v>0.3212733944672699</v>
       </c>
       <c r="Q11">
-        <v>0.03006403549233333</v>
+        <v>0.01408104214488889</v>
       </c>
       <c r="R11">
-        <v>0.270576319431</v>
+        <v>0.126729379304</v>
       </c>
       <c r="S11">
-        <v>0.002051090601636745</v>
+        <v>0.001804152345184702</v>
       </c>
       <c r="T11">
-        <v>0.002051090601636745</v>
+        <v>0.001804152345184702</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.025421</v>
       </c>
       <c r="I12">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J12">
         <v>0.005615629480232303</v>
-      </c>
-      <c r="J12">
-        <v>0.005615629480232304</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1715316666666667</v>
+        <v>0.1178836666666667</v>
       </c>
       <c r="N12">
-        <v>0.514595</v>
+        <v>0.353651</v>
       </c>
       <c r="O12">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="P12">
-        <v>0.01765854055925821</v>
+        <v>0.02279108365576842</v>
       </c>
       <c r="Q12">
-        <v>0.001453502166111111</v>
+        <v>0.0009989068967777776</v>
       </c>
       <c r="R12">
-        <v>0.013081519495</v>
+        <v>0.008990162070999999</v>
       </c>
       <c r="S12">
-        <v>9.916382094244823E-05</v>
+        <v>0.0001279862812637737</v>
       </c>
       <c r="T12">
-        <v>9.916382094244824E-05</v>
+        <v>0.0001279862812637737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,11 +1231,11 @@
         <v>0.025421</v>
       </c>
       <c r="I13">
+        <v>0.005615629480232302</v>
+      </c>
+      <c r="J13">
         <v>0.005615629480232303</v>
       </c>
-      <c r="J13">
-        <v>0.005615629480232304</v>
-      </c>
       <c r="K13">
         <v>3</v>
       </c>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.293933666666666</v>
+        <v>0.385306</v>
       </c>
       <c r="N13">
-        <v>6.881800999999999</v>
+        <v>1.155918</v>
       </c>
       <c r="O13">
-        <v>0.2361518516099917</v>
+        <v>0.07449328246550557</v>
       </c>
       <c r="P13">
-        <v>0.2361518516099917</v>
+        <v>0.0744932824655056</v>
       </c>
       <c r="Q13">
-        <v>0.01943802924677777</v>
+        <v>0.003264954608666666</v>
       </c>
       <c r="R13">
-        <v>0.174942263221</v>
+        <v>0.029384591478</v>
       </c>
       <c r="S13">
-        <v>0.001326141299712514</v>
+        <v>0.0004183266730925651</v>
       </c>
       <c r="T13">
-        <v>0.001326141299712514</v>
+        <v>0.0004183266730925654</v>
       </c>
     </row>
   </sheetData>
